--- a/T- and Chi2 test tables/all_tw_sign_diff_in_std_diffs.xlsx
+++ b/T- and Chi2 test tables/all_tw_sign_diff_in_std_diffs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>var</t>
   </si>
@@ -43,88 +43,130 @@
     <t>month_11</t>
   </si>
   <si>
+    <t>part_of_the_day_12-15</t>
+  </si>
+  <si>
+    <t>part_of_the_day_22-05</t>
+  </si>
+  <si>
+    <t>part_of_the_day_08-12</t>
+  </si>
+  <si>
+    <t>topic_name_Digital</t>
+  </si>
+  <si>
     <t>topic_name_Competition</t>
   </si>
   <si>
+    <t>topic_name_Festivity</t>
+  </si>
+  <si>
+    <t>topic_name_Togetherness</t>
+  </si>
+  <si>
+    <t>topic_name_Appreciation</t>
+  </si>
+  <si>
+    <t>sentiment_1</t>
+  </si>
+  <si>
+    <t>Media type_1</t>
+  </si>
+  <si>
+    <t>Media type_2</t>
+  </si>
+  <si>
     <t>is_weekday_0</t>
   </si>
   <si>
-    <t>Media type_2</t>
-  </si>
-  <si>
-    <t>Media type_1</t>
-  </si>
-  <si>
-    <t>sentiment_1</t>
-  </si>
-  <si>
-    <t>topic_name_Digital</t>
-  </si>
-  <si>
-    <t>topic_name_Appreciation</t>
-  </si>
-  <si>
-    <t>topic_name_Festivity</t>
-  </si>
-  <si>
-    <t>topic_name_Togetherness</t>
-  </si>
-  <si>
-    <t>part_of_the_day_22-05</t>
-  </si>
-  <si>
-    <t>part_of_the_day_08-12</t>
-  </si>
-  <si>
-    <t>part_of_the_day_12-15</t>
+    <t>month_10</t>
+  </si>
+  <si>
+    <t>part_of_the_day_15-19</t>
+  </si>
+  <si>
+    <t>part_of_the_day_19-22</t>
+  </si>
+  <si>
+    <t>has_emoji_0</t>
+  </si>
+  <si>
+    <t>topic_name_Financial</t>
+  </si>
+  <si>
+    <t>topic_name_Education</t>
+  </si>
+  <si>
+    <t>topic_name_Entrepreneurship</t>
   </si>
   <si>
     <t>topic_name_Event</t>
   </si>
   <si>
+    <t>topic_name_unknown</t>
+  </si>
+  <si>
+    <t>sentiment_0</t>
+  </si>
+  <si>
     <t>sentiment_-1</t>
   </si>
   <si>
+    <t>Media type_0</t>
+  </si>
+  <si>
+    <t>has_image_0</t>
+  </si>
+  <si>
+    <t>has_video_0</t>
+  </si>
+  <si>
     <t>video_duration</t>
   </si>
   <si>
-    <t>has_video_0</t>
-  </si>
-  <si>
-    <t>has_image_0</t>
-  </si>
-  <si>
-    <t>Media type_0</t>
-  </si>
-  <si>
-    <t>part_of_the_day_15-19</t>
-  </si>
-  <si>
-    <t>topic_name_Education</t>
-  </si>
-  <si>
-    <t>sentiment_0</t>
-  </si>
-  <si>
-    <t>topic_name_Financial</t>
-  </si>
-  <si>
-    <t>part_of_the_day_19-22</t>
-  </si>
-  <si>
-    <t>has_emoji_0</t>
-  </si>
-  <si>
-    <t>month_10</t>
-  </si>
-  <si>
-    <t>topic_name_unknown</t>
-  </si>
-  <si>
-    <t>topic_name_Entrepreneurship</t>
-  </si>
-  <si>
     <t>raw_length</t>
+  </si>
+  <si>
+    <t>month_1</t>
+  </si>
+  <si>
+    <t>month_3</t>
+  </si>
+  <si>
+    <t>month_4</t>
+  </si>
+  <si>
+    <t>month_5</t>
+  </si>
+  <si>
+    <t>month_7</t>
+  </si>
+  <si>
+    <t>asking_for_eng_0</t>
+  </si>
+  <si>
+    <t>month_2</t>
+  </si>
+  <si>
+    <t>month_6</t>
+  </si>
+  <si>
+    <t>month_8</t>
+  </si>
+  <si>
+    <t>month_9</t>
+  </si>
+  <si>
+    <t>month_12</t>
+  </si>
+  <si>
+    <t>part_of_the_day_05-08</t>
+  </si>
+  <si>
+    <t>topic_name_Transaction</t>
+  </si>
+  <si>
+    <t>topic_name_Empowerment</t>
   </si>
 </sst>
 </file>
@@ -482,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,22 +593,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>12057</v>
+        <v>31856</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0.1105117164440567</v>
+        <v>0.01126217894624662</v>
       </c>
       <c r="F3">
-        <v>-0.01207573769897948</v>
+        <v>-0.006770462918335804</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -580,16 +622,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>21710</v>
+        <v>28791</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0.0428632062196183</v>
+        <v>0.06736551390815325</v>
       </c>
       <c r="F4">
-        <v>-0.01015585086756395</v>
+        <v>-0.0177930243165984</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -609,22 +651,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>12037</v>
+        <v>6802</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>0.09642281797961214</v>
+        <v>0.0233423387365958</v>
       </c>
       <c r="F5">
-        <v>-0.01098881802460475</v>
+        <v>-0.004510021726402898</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -638,16 +680,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>56251</v>
+        <v>15782</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0.09254879840900035</v>
+        <v>0.04023921401579494</v>
       </c>
       <c r="F6">
-        <v>-0.05071232154376842</v>
+        <v>-0.007854079671193139</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -667,16 +709,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>112290</v>
+        <v>12057</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>0.02010957173460285</v>
+        <v>0.1105117164440567</v>
       </c>
       <c r="F7">
-        <v>-0.04888580614224701</v>
+        <v>-0.01207573769897948</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -696,16 +738,16 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>15782</v>
+        <v>12235</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>0.04023921401579494</v>
+        <v>0.02755602130478071</v>
       </c>
       <c r="F8">
-        <v>-0.007854079671193139</v>
+        <v>-0.005793366534335482</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -725,16 +767,16 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>8907</v>
+        <v>10356</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>0.06742751531689255</v>
+        <v>0.1248451676252403</v>
       </c>
       <c r="F9">
-        <v>-0.007305946977160679</v>
+        <v>-0.01170012559452428</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -754,16 +796,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>12235</v>
+        <v>8907</v>
       </c>
       <c r="D10">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>0.02755602130478071</v>
+        <v>0.06742751531689255</v>
       </c>
       <c r="F10">
-        <v>-0.005793366534335482</v>
+        <v>-0.007305946977160679</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -783,16 +825,16 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>10356</v>
+        <v>112290</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>0.1248451676252403</v>
+        <v>0.02010957173460285</v>
       </c>
       <c r="F11">
-        <v>-0.01170012559452428</v>
+        <v>-0.04888580614224701</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -812,16 +854,16 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>28791</v>
+        <v>56251</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>0.06736551390815325</v>
+        <v>0.09254879840900035</v>
       </c>
       <c r="F12">
-        <v>-0.0177930243165984</v>
+        <v>-0.05071232154376842</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -841,22 +883,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>6802</v>
+        <v>12037</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0.0233423387365958</v>
+        <v>0.09642281797961214</v>
       </c>
       <c r="F13">
-        <v>-0.004510021726402898</v>
+        <v>-0.01098881802460475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -870,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>31856</v>
+        <v>21710</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0.01126217894624662</v>
+        <v>0.0428632062196183</v>
       </c>
       <c r="F14">
-        <v>-0.006770462918335804</v>
+        <v>-0.01015585086756395</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -899,22 +941,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>14623</v>
+        <v>16437</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15">
-        <v>-0.02553425685295865</v>
+        <v>-0.02059663310369556</v>
       </c>
       <c r="F15">
-        <v>-0.001318615742145487</v>
+        <v>-0.001560570932431695</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.004</v>
+        <v>0.016</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -928,16 +970,16 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>13772</v>
+        <v>63522</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>-0.03155291151752439</v>
+        <v>-0.03560911278463267</v>
       </c>
       <c r="F16">
-        <v>-0.0009207709961260978</v>
+        <v>0.0157614111609459</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -957,16 +999,16 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>170319</v>
+        <v>37281</v>
       </c>
       <c r="D17">
-        <v>5133</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>-0.003397686896646282</v>
+        <v>-0.0192820112822266</v>
       </c>
       <c r="F17">
-        <v>0.01693564081546929</v>
+        <v>0.001053548821109697</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -986,16 +1028,16 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>158281</v>
+        <v>162874</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>-0.01098398644300133</v>
+        <v>-0.006237720821195868</v>
       </c>
       <c r="F18">
-        <v>0.09635036747256982</v>
+        <v>0.05873363418153901</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1015,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>114067</v>
+        <v>10342</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>-0.05070596541917277</v>
+        <v>-0.04587686647729008</v>
       </c>
       <c r="F19">
-        <v>0.09253336277677028</v>
+        <v>-0.0006515441684852448</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1044,16 +1086,16 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>102030</v>
+        <v>34901</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>-0.06806349914230492</v>
+        <v>-0.05254486290989364</v>
       </c>
       <c r="F20">
-        <v>0.09321893984301241</v>
+        <v>0.009268912743271207</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1073,16 +1115,16 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>63522</v>
+        <v>26535</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>-0.03560911278463267</v>
+        <v>-0.05274830438346711</v>
       </c>
       <c r="F21">
-        <v>0.0157614111609459</v>
+        <v>0.005709853824246103</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1102,22 +1144,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>34901</v>
+        <v>14623</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22">
-        <v>-0.05254486290989364</v>
+        <v>-0.02553425685295865</v>
       </c>
       <c r="F22">
-        <v>0.009268912743271207</v>
+        <v>-0.001318615742145487</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1131,16 +1173,16 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>44257</v>
+        <v>4259</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>-0.05427949809542234</v>
+        <v>-0.107033046430961</v>
       </c>
       <c r="F23">
-        <v>0.01446555752454513</v>
+        <v>-0.0007397138973891063</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1160,16 +1202,16 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>10342</v>
+        <v>44257</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>-0.04587686647729008</v>
+        <v>-0.05427949809542234</v>
       </c>
       <c r="F24">
-        <v>-0.0006515441684852448</v>
+        <v>0.01446555752454513</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1189,16 +1231,16 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>37281</v>
+        <v>13772</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>-0.0192820112822266</v>
+        <v>-0.03155291151752439</v>
       </c>
       <c r="F25">
-        <v>0.001053548821109697</v>
+        <v>-0.0009207709961260978</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1218,16 +1260,16 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>162874</v>
+        <v>102030</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>-0.006237720821195868</v>
+        <v>-0.06806349914230492</v>
       </c>
       <c r="F26">
-        <v>0.05873363418153901</v>
+        <v>0.09321893984301241</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1247,22 +1289,22 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>16437</v>
+        <v>114067</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>-0.02059663310369556</v>
+        <v>-0.05070596541917277</v>
       </c>
       <c r="F27">
-        <v>-0.001560570932431695</v>
+        <v>0.09253336277677028</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1276,16 +1318,16 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>4259</v>
+        <v>158281</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>-0.107033046430961</v>
+        <v>-0.01098398644300133</v>
       </c>
       <c r="F28">
-        <v>-0.0007397138973891063</v>
+        <v>0.09635036747256982</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1305,16 +1347,16 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>26535</v>
+        <v>170319</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>5133</v>
       </c>
       <c r="E29">
-        <v>-0.05274830438346711</v>
+        <v>-0.003397686896646282</v>
       </c>
       <c r="F29">
-        <v>0.005709853824246103</v>
+        <v>0.01693564081546929</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1353,6 +1395,412 @@
       </c>
       <c r="I30">
         <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>12503</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>-0.002535861462763192</v>
+      </c>
+      <c r="F31">
+        <v>-0.003465965166275725</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.919</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>14574</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0.003714060050264253</v>
+      </c>
+      <c r="F32">
+        <v>-0.004063175997447425</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.368</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>14195</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>0.003052586313475508</v>
+      </c>
+      <c r="F33">
+        <v>-0.003984154244508743</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.412</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>14589</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>0.004577202763230818</v>
+      </c>
+      <c r="F34">
+        <v>-0.004144785498379711</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.304</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>14331</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>-0.001335777973835665</v>
+      </c>
+      <c r="F35">
+        <v>-0.003587119524622786</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.791</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>166411</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>-0.003213318064304421</v>
+      </c>
+      <c r="F36">
+        <v>-0.0112485061798708</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.634</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>13239</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>-0.007764139343861631</v>
+      </c>
+      <c r="F37">
+        <v>-0.003029674011818908</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.583</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>14429</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>-0.005244768202346893</v>
+      </c>
+      <c r="F38">
+        <v>-0.003226723164784366</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>13764</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>-0.01302041072894983</v>
+      </c>
+      <c r="F39">
+        <v>-0.002551676415806794</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.229</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>15003</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>-0.009363167195563205</v>
+      </c>
+      <c r="F40">
+        <v>-0.002821441687365521</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.43</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>11880</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>-0.005565916018460895</v>
+      </c>
+      <c r="F41">
+        <v>-0.003235109740976543</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.805</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>2067</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>-0.02657909103017378</v>
+      </c>
+      <c r="F42">
+        <v>-0.00311290001539672</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.246</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>9177</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>-0.007981255010368466</v>
+      </c>
+      <c r="F43">
+        <v>-0.003136653742163722</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.65</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>11145</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>-0.01492317636156552</v>
+      </c>
+      <c r="F44">
+        <v>-0.002590698443214661</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.201</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
